--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,25 +19,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>https://example.com/item1</t>
-  </si>
-  <si>
-    <t>https://example.com/item2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>4602723178224</t>
+  </si>
+  <si>
+    <t>4602723178200</t>
+  </si>
+  <si>
+    <t>4602723178194</t>
+  </si>
+  <si>
+    <t>4602723178217</t>
+  </si>
+  <si>
+    <t>https://www.informat.ru/item.php?id=247934&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+  </si>
+  <si>
+    <t>https://www.informat.ru/item.php?id=247932&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+  </si>
+  <si>
+    <t>https://www.informat.ru/item.php?id=247931&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+  </si>
+  <si>
+    <t>https://www.informat.ru/item.php?id=247933&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+  </si>
+  <si>
+    <t>https://www.informat.ru/item.php?id=247927&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+  </si>
+  <si>
+    <t>https://www.informat.ru/item.php?id=247922&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
+  </si>
+  <si>
+    <t>4602723178247</t>
+  </si>
+  <si>
+    <t>4602723178269</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -56,12 +91,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -342,28 +395,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1234546</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2342364</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7245" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>https://www.informat.ru/item.php?id=204088&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>4891199226281</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,34 +457,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,26 +497,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,61 +537,72 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="260" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8280" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>https://www.informat.ru/item.php?id=204088&amp;utm_source=zakaz&amp;utm_medium=price-list&amp;utm_campaign=linksite</t>
   </si>
@@ -127,16 +127,30 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Base URL</t>
+  </si>
+  <si>
+    <t>https://www.informat.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,13 +173,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,166 +461,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:B18">
     <sortCondition ref="A2:A18"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="260" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="260" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
 </worksheet>
 </file>